--- a/ValueSet-prom-target-measures.xlsx
+++ b/ValueSet-prom-target-measures.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-27T18:37:51+00:00</t>
+    <t>2024-08-28T01:59:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-prom-target-measures.xlsx
+++ b/ValueSet-prom-target-measures.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T01:59:14+00:00</t>
+    <t>2024-08-28T17:18:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-prom-target-measures.xlsx
+++ b/ValueSet-prom-target-measures.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T17:18:00+00:00</t>
+    <t>2024-08-28T19:37:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-prom-target-measures.xlsx
+++ b/ValueSet-prom-target-measures.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T19:37:38+00:00</t>
+    <t>2024-08-28T21:15:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-prom-target-measures.xlsx
+++ b/ValueSet-prom-target-measures.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T21:15:57+00:00</t>
+    <t>2024-08-28T22:24:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-prom-target-measures.xlsx
+++ b/ValueSet-prom-target-measures.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T22:24:15+00:00</t>
+    <t>2024-09-06T15:21:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-prom-target-measures.xlsx
+++ b/ValueSet-prom-target-measures.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-06T15:21:17+00:00</t>
+    <t>2024-09-06T16:42:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-prom-target-measures.xlsx
+++ b/ValueSet-prom-target-measures.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-06T16:42:31+00:00</t>
+    <t>2024-09-06T21:25:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -112,6 +112,66 @@
   </si>
   <si>
     <t>Patient health questionnaire 9 item (PHQ-9) total score</t>
+  </si>
+  <si>
+    <t>91614-8</t>
+  </si>
+  <si>
+    <t>PROMIS mobility - version 2.0 T-score</t>
+  </si>
+  <si>
+    <t>89676-1</t>
+  </si>
+  <si>
+    <t>PROMIS cancer fatigue - version 1.0 T-score</t>
+  </si>
+  <si>
+    <t>71969-0</t>
+  </si>
+  <si>
+    <t>PROMIS-10 Global Health, GMH, T score</t>
+  </si>
+  <si>
+    <t>71971-6</t>
+  </si>
+  <si>
+    <t>PROMIS-10 Global Health, GPH, T score</t>
+  </si>
+  <si>
+    <t>71955-9</t>
+  </si>
+  <si>
+    <t>PROMIS-29 Sleep Disturbance, T score</t>
+  </si>
+  <si>
+    <t>71957-5</t>
+  </si>
+  <si>
+    <t>PROMIS-29 Satisfaction with Participation in Social Roles, T score</t>
+  </si>
+  <si>
+    <t>71959-1</t>
+  </si>
+  <si>
+    <t>PROMIS-29 Physical Function, T score</t>
+  </si>
+  <si>
+    <t>71961-7</t>
+  </si>
+  <si>
+    <t>PROMIS-29 Pain Interference, T score</t>
+  </si>
+  <si>
+    <t>71963-3</t>
+  </si>
+  <si>
+    <t>PROMIS-29 Fatigue, T score</t>
+  </si>
+  <si>
+    <t>71965-8</t>
+  </si>
+  <si>
+    <t>PROMIS-29 Depression, T score</t>
   </si>
   <si>
     <t/>
@@ -387,7 +447,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -426,15 +486,95 @@
         <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-prom-target-measures.xlsx
+++ b/ValueSet-prom-target-measures.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from LOINC" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-06T21:25:34+00:00</t>
+    <t>2024-09-10T20:59:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-prom-target-measures.xlsx
+++ b/ValueSet-prom-target-measures.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T20:59:56+00:00</t>
+    <t>2024-09-16T23:28:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-prom-target-measures.xlsx
+++ b/ValueSet-prom-target-measures.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T23:28:14+00:00</t>
+    <t>2024-09-17T14:31:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-prom-target-measures.xlsx
+++ b/ValueSet-prom-target-measures.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T14:31:31+00:00</t>
+    <t>2024-09-17T18:49:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-prom-target-measures.xlsx
+++ b/ValueSet-prom-target-measures.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T18:49:04+00:00</t>
+    <t>2024-09-17T23:38:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-prom-target-measures.xlsx
+++ b/ValueSet-prom-target-measures.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T23:38:01+00:00</t>
+    <t>2024-09-21T00:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-prom-target-measures.xlsx
+++ b/ValueSet-prom-target-measures.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-21T00:47:01+00:00</t>
+    <t>2024-09-22T11:40:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-prom-target-measures.xlsx
+++ b/ValueSet-prom-target-measures.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="100">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-22T11:40:07+00:00</t>
+    <t>2024-09-23T01:04:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,10 +114,148 @@
     <t>Patient health questionnaire 9 item (PHQ-9) total score</t>
   </si>
   <si>
+    <t>77854-8</t>
+  </si>
+  <si>
+    <t>PROMIS Ability to Participate in Social Roles and Activities - Short Form v2.0 - 8a</t>
+  </si>
+  <si>
+    <t>77848-0</t>
+  </si>
+  <si>
+    <t>PROMIS Alcohol Use - Short Form v1.0 - 7a</t>
+  </si>
+  <si>
+    <t>89921-1</t>
+  </si>
+  <si>
+    <t>PROMIS Anger - Short Form v1.1 -  (5a)</t>
+  </si>
+  <si>
+    <t>77862-1</t>
+  </si>
+  <si>
+    <t>PROMIS Anxiety Short Form 7a</t>
+  </si>
+  <si>
+    <t>81531-6</t>
+  </si>
+  <si>
+    <t>PROMIS Cognitive Function - Short Form v2.0 - 8a</t>
+  </si>
+  <si>
+    <t>71965-8</t>
+  </si>
+  <si>
+    <t>PROMIS Depression</t>
+  </si>
+  <si>
+    <t>92149-4</t>
+  </si>
+  <si>
+    <t>PROMIS Dyspnea Severity - Short Form v1.0 - 10a</t>
+  </si>
+  <si>
+    <t>77864-7</t>
+  </si>
+  <si>
+    <t>PROMIS Fatigue - Short Form v1.0 - 7a</t>
+  </si>
+  <si>
+    <t>77851-4</t>
+  </si>
+  <si>
+    <t>PROMIS Informational Support - Short Form v2.0 - 8a</t>
+  </si>
+  <si>
+    <t>77850-6</t>
+  </si>
+  <si>
+    <t>PROMIS Instrumental Support- Short Form v2.0 - 8a</t>
+  </si>
+  <si>
     <t>91614-8</t>
   </si>
   <si>
-    <t>PROMIS mobility - version 2.0 T-score</t>
+    <t>PROMIS Mobility Item Bank v2.1</t>
+  </si>
+  <si>
+    <t>77856-3</t>
+  </si>
+  <si>
+    <t>PROMIS Pain behavior – v1.0 - 7a</t>
+  </si>
+  <si>
+    <t>77865-4</t>
+  </si>
+  <si>
+    <t>PROMIS - Pain Interference - Short Form v1.0 - 6a</t>
+  </si>
+  <si>
+    <t>91721-1</t>
+  </si>
+  <si>
+    <t>PROMIS Physical Function - Short Form v2.0 - 10a</t>
+  </si>
+  <si>
+    <t>77855-5</t>
+  </si>
+  <si>
+    <t>PROMIS Satisfaction with Participation in Social Roles - Short Form v1.0 - 8a</t>
+  </si>
+  <si>
+    <t>92391-2</t>
+  </si>
+  <si>
+    <t>PROMIS Self-Efficacy for Managing Daily Activities - Short Form v1.0 - 8a</t>
+  </si>
+  <si>
+    <t>92329-2</t>
+  </si>
+  <si>
+    <t>PROMIS Self-Efficacy for Managing Emotions - Short Form v1.0 - 8a</t>
+  </si>
+  <si>
+    <t>92418-3</t>
+  </si>
+  <si>
+    <t>PROMIS Self-Efficacy for Managing Medications and Treatments - Short Form v1.0 - 8a</t>
+  </si>
+  <si>
+    <t>92448-0</t>
+  </si>
+  <si>
+    <t>PROMIS Self-Efficacy for Managing Symptoms - Short Form v1.0 - 8a</t>
+  </si>
+  <si>
+    <t>77859-7</t>
+  </si>
+  <si>
+    <t>PROMIS Sleep-Related Impairment - Short Form v1.0 - 8a</t>
+  </si>
+  <si>
+    <t>92266-6</t>
+  </si>
+  <si>
+    <t>PROMIS Smoking: Negative Health Expectancies for All Smokers – Short Form v1.0 - 6a</t>
+  </si>
+  <si>
+    <t>92305-2</t>
+  </si>
+  <si>
+    <t>PROMIS Smoking: Nicotine Dependence for All Smokers – Short Form v1.0 - 8a</t>
+  </si>
+  <si>
+    <t>77849-8</t>
+  </si>
+  <si>
+    <t>PROMIS Social Isolation - Short Form v2.0 - 8a</t>
+  </si>
+  <si>
+    <t>92213-8</t>
+  </si>
+  <si>
+    <t>PROMIS_ Smoking: Coping Expectancies for All Smokers – Short Form v1.0 - 4a</t>
   </si>
   <si>
     <t>89676-1</t>
@@ -166,12 +304,6 @@
   </si>
   <si>
     <t>PROMIS-29 Fatigue, T score</t>
-  </si>
-  <si>
-    <t>71965-8</t>
-  </si>
-  <si>
-    <t>PROMIS-29 Depression, T score</t>
   </si>
   <si>
     <t/>
@@ -447,7 +579,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -566,15 +698,191 @@
         <v>53</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-prom-target-measures.xlsx
+++ b/ValueSet-prom-target-measures.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T01:04:09+00:00</t>
+    <t>2024-10-22T17:57:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-prom-target-measures.xlsx
+++ b/ValueSet-prom-target-measures.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T17:57:32+00:00</t>
+    <t>2024-10-22T17:59:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-prom-target-measures.xlsx
+++ b/ValueSet-prom-target-measures.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T17:59:45+00:00</t>
+    <t>2024-10-23T15:58:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-prom-target-measures.xlsx
+++ b/ValueSet-prom-target-measures.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T15:58:47+00:00</t>
+    <t>2024-10-23T18:44:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-prom-target-measures.xlsx
+++ b/ValueSet-prom-target-measures.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T18:44:18+00:00</t>
+    <t>2024-10-23T18:49:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-prom-target-measures.xlsx
+++ b/ValueSet-prom-target-measures.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T18:49:00+00:00</t>
+    <t>2024-10-24T19:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-prom-target-measures.xlsx
+++ b/ValueSet-prom-target-measures.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T19:50:25+00:00</t>
+    <t>2024-10-25T20:06:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-prom-target-measures.xlsx
+++ b/ValueSet-prom-target-measures.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://mtnlotus.com/uv/pco/ValueSet/prom-target-measures</t>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/prom-target-measures</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,25 +60,25 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-25T20:06:08+00:00</t>
+    <t>2024-11-25T08:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Mountain Lotus WellBeing LLC</t>
+    <t>HL7 International / Patient Care</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Mountain Lotus WellBeing LLC (http://mtnlotus.com)</t>
+    <t>HL7 International / Patient Care (http://www.hl7.org/Special/committees/patientcare, patientcare@lists.HL7.org)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>

--- a/ValueSet-prom-target-measures.xlsx
+++ b/ValueSet-prom-target-measures.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-25T08:40:55+00:00</t>
+    <t>2024-12-09T23:33:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-prom-target-measures.xlsx
+++ b/ValueSet-prom-target-measures.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T23:33:01+00:00</t>
+    <t>2024-12-10T23:26:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-prom-target-measures.xlsx
+++ b/ValueSet-prom-target-measures.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-10T23:26:43+00:00</t>
+    <t>2024-12-11T00:46:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-prom-target-measures.xlsx
+++ b/ValueSet-prom-target-measures.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T00:46:43+00:00</t>
+    <t>2024-12-12T02:30:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-prom-target-measures.xlsx
+++ b/ValueSet-prom-target-measures.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-12T02:30:34+00:00</t>
+    <t>2024-12-13T23:01:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-prom-target-measures.xlsx
+++ b/ValueSet-prom-target-measures.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T23:01:09+00:00</t>
+    <t>2024-12-23T14:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-prom-target-measures.xlsx
+++ b/ValueSet-prom-target-measures.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-23T14:45:33+00:00</t>
+    <t>2024-12-27T16:03:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-prom-target-measures.xlsx
+++ b/ValueSet-prom-target-measures.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T16:03:14+00:00</t>
+    <t>2024-12-28T21:18:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-prom-target-measures.xlsx
+++ b/ValueSet-prom-target-measures.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-28T21:18:04+00:00</t>
+    <t>2025-01-02T22:55:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-prom-target-measures.xlsx
+++ b/ValueSet-prom-target-measures.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T22:55:55+00:00</t>
+    <t>2025-01-06T17:40:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-prom-target-measures.xlsx
+++ b/ValueSet-prom-target-measures.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T17:40:57+00:00</t>
+    <t>2025-01-06T22:35:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-prom-target-measures.xlsx
+++ b/ValueSet-prom-target-measures.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T22:35:31+00:00</t>
+    <t>2025-01-08T19:36:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-prom-target-measures.xlsx
+++ b/ValueSet-prom-target-measures.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08T19:36:44+00:00</t>
+    <t>2025-01-09T14:13:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-prom-target-measures.xlsx
+++ b/ValueSet-prom-target-measures.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T14:13:32+00:00</t>
+    <t>2025-01-10T15:56:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-prom-target-measures.xlsx
+++ b/ValueSet-prom-target-measures.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T15:56:56+00:00</t>
+    <t>2025-01-10T20:42:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-prom-target-measures.xlsx
+++ b/ValueSet-prom-target-measures.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>PROM Target Measures</t>
+    <t>PROM Target Measure Scores</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T20:42:09+00:00</t>
+    <t>2025-01-18T20:16:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Target measure codes used to track progress on patient-reported outcome measures (PROMs).</t>
+    <t>Target measure score codes used to track progress on patient-reported outcome measures (PROMs).</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ValueSet-prom-target-measures.xlsx
+++ b/ValueSet-prom-target-measures.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-18T20:16:34+00:00</t>
+    <t>2025-01-19T14:30:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-prom-target-measures.xlsx
+++ b/ValueSet-prom-target-measures.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-19T14:30:29+00:00</t>
+    <t>2025-01-19T16:32:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-prom-target-measures.xlsx
+++ b/ValueSet-prom-target-measures.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-19T16:32:23+00:00</t>
+    <t>2025-01-25T16:46:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-prom-target-measures.xlsx
+++ b/ValueSet-prom-target-measures.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-25T16:46:38+00:00</t>
+    <t>2025-02-03T23:01:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-prom-target-measures.xlsx
+++ b/ValueSet-prom-target-measures.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T23:01:50+00:00</t>
+    <t>2025-02-10T21:11:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
